--- a/doc/Book1.xlsx
+++ b/doc/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taka/Documents/Projects/Vagrant/point_test/1/img_60_point_diff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taka/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AAE0D2-3FE4-5F4D-ACA7-14229565AE9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2474AE6B-34DE-F74B-A660-72C7BED3DF9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4760" yWindow="460" windowWidth="22500" windowHeight="13960" xr2:uid="{D778CCD1-0D64-4441-A203-A0B870CA356A}"/>
   </bookViews>
@@ -30,43 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>/1.png</t>
-  </si>
-  <si>
-    <t>./1a.png</t>
-  </si>
-  <si>
-    <t>./2.png</t>
-  </si>
-  <si>
-    <t>./2a.png</t>
-  </si>
-  <si>
-    <t>./3.png</t>
-  </si>
-  <si>
-    <t>./3a.png</t>
-  </si>
-  <si>
-    <t>./4.png</t>
-  </si>
-  <si>
-    <t>./4a.png</t>
-  </si>
-  <si>
-    <t>./5.png</t>
-  </si>
-  <si>
-    <t>./5a.png</t>
-  </si>
-  <si>
-    <t>./6.png</t>
-  </si>
-  <si>
-    <t>./6a.png</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>import cv2</t>
   </si>
@@ -146,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +150,12 @@
       <charset val="128"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +190,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -333,13 +306,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>253999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>3174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -377,13 +350,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -421,13 +394,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>952499</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>53974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -465,13 +438,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -509,13 +482,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -553,13 +526,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>25399</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410632</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -597,13 +570,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -641,13 +614,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -685,13 +658,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -729,13 +702,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1069,208 +1042,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB35322-7347-064A-8380-B72050CC04B3}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:7" ht="33">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="F4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="F5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="F7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
+      <c r="A8" s="1">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1">
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>98</v>
-      </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>96</v>
-      </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="G12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="G14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>183</v>
+      </c>
+      <c r="C15" s="1">
+        <v>149</v>
+      </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="G16" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>183</v>
-      </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>149</v>
-      </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
       <c r="G21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C22" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1">
+      <c r="C29" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>110</v>
+      </c>
+      <c r="C36" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1">
+      <c r="C43" s="1">
         <v>60</v>
       </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
